--- a/BackTest/2020-01-20 BackTest XLM.xlsx
+++ b/BackTest/2020-01-20 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4279,7 +4279,7 @@
         <v>507247.5359800599</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>507254.5359800599</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>485835.0675800599</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>433642.5791800598</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>420810.2092800598</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>457813.4495800599</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>765133.8694610299</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>819242.6163610298</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>820242.6163610298</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>791054.1523610298</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>757750.6087610297</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>753598.0276610296</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>823268.4240610296</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>943532.7612610294</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>802238.5472610294</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>802036.7898610294</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>784004.8125610293</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>783994.9912610294</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>788906.8587477494</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>784098.4222477494</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>784130.5129477493</v>
       </c>
       <c r="H385" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>846358.7750477494</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>2242215.9021047</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>2492170.33289321</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>2015469.35318172</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>2044918.31618172</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>2095097.63008172</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>2054101.31106612</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>2054101.31106612</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>1998452.83291826</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>1919054.28191826</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>2016104.42101826</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>2150356.3009704</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>2159797.8495704</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>2325516.8786704</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>2081008.820243281</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>2005058.233943281</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>2004907.207709771</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>2031065.023809771</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>1999160.259209771</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>1962769.743909771</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>2019696.140309771</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>2199234.19616351</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>2141219.77096351</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>2118046.45940769</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>2136456.57840769</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>2141706.71960769</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>2134719.28120769</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>2154742.72870769</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>2142968.76800769</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>2079760.32780769</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>2092773.22380769</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>2147108.57420769</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>2147108.57410769</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>2165440.12010769</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>2154520.93120769</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>2167356.59880769</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>2166557.90270769</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>2212435.39871316</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19030,7 @@
         <v>2223242.64881316</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19063,7 @@
         <v>2514231.39021316</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19096,7 @@
         <v>2524801.94220769</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19129,7 @@
         <v>2525335.74110769</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
         <v>2525191.42440769</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19294,7 +19294,7 @@
         <v>2637037.67730769</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19525,7 +19525,7 @@
         <v>2666875.980107691</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19558,7 @@
         <v>2666155.346707691</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +19591,7 @@
         <v>2691318.55570769</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +19624,7 @@
         <v>2665281.27850769</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
         <v>2665767.721707691</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +19690,7 @@
         <v>2666270.886907691</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +19723,7 @@
         <v>2666309.344107691</v>
       </c>
       <c r="H586" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +19756,7 @@
         <v>2725379.267807691</v>
       </c>
       <c r="H587" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +19789,7 @@
         <v>2728386.035607691</v>
       </c>
       <c r="H588" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
         <v>2728379.266907691</v>
       </c>
       <c r="H589" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +19855,7 @@
         <v>2728372.507407691</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +19888,7 @@
         <v>2714529.942007691</v>
       </c>
       <c r="H591" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>2692211.465907691</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>2689651.167907691</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>2696225.64830769</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>2696566.53760769</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>2698009.06660769</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>2697560.260307691</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>2697567.036307691</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>2628907.851207691</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>2628907.851207691</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>2628907.851207691</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>2540700.994207691</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>2541218.820407691</v>
       </c>
       <c r="H604" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>2557836.811707691</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>2557829.954807691</v>
       </c>
       <c r="H606" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>2535797.181507691</v>
       </c>
       <c r="H607" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>2432902.585107691</v>
       </c>
       <c r="H608" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>2235447.179107691</v>
       </c>
       <c r="H609" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>2123849.896907691</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>2355396.814807691</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>2213149.999207691</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>2335253.521607691</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>2269457.098407691</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>2277929.478507691</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>2277929.478507691</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>2267836.359207691</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>2038363.510807691</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>1945604.645507691</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>1938839.393407691</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>1971590.334807691</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>1892567.932407691</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>1571826.892375741</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>1571826.892375741</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>1914360.827668541</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23188,10 +23188,14 @@
         <v>931343.3490542823</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="J691" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
@@ -23221,11 +23225,19 @@
         <v>902728.7860542823</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>66.45999999999999</v>
+      </c>
+      <c r="J692" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23254,11 +23266,19 @@
         <v>927526.1856542823</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>66.23999999999999</v>
+      </c>
+      <c r="J693" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23287,15 +23307,17 @@
         <v>821230.1403542823</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I694" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L694" t="n">
@@ -23326,12 +23348,14 @@
         <v>851116.3758542823</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I695" t="n">
         <v>66.34999999999999</v>
       </c>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23365,12 +23389,14 @@
         <v>897355.4606542822</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>66.45999999999999</v>
       </c>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23404,12 +23430,14 @@
         <v>931598.6373542822</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>66.56</v>
       </c>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23443,12 +23471,14 @@
         <v>960863.1379010422</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>66.66</v>
       </c>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23482,10 +23512,14 @@
         <v>891503.0883010422</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>66.73999999999999</v>
+      </c>
+      <c r="J699" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23519,12 +23553,14 @@
         <v>932186.6627010423</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I700" t="n">
         <v>66.68000000000001</v>
       </c>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23558,12 +23594,14 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I701" t="n">
         <v>66.98999999999999</v>
       </c>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23597,10 +23635,14 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="J702" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23634,10 +23676,14 @@
         <v>984311.0225010422</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>67.29000000000001</v>
+      </c>
+      <c r="J703" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23671,10 +23717,14 @@
         <v>984311.0225010422</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="J704" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23708,10 +23758,14 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>67.53</v>
+      </c>
+      <c r="J705" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23745,10 +23799,14 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J706" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23782,10 +23840,14 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="J707" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23822,7 +23884,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23859,7 +23923,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23896,7 +23962,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23933,7 +24001,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23970,7 +24040,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24007,7 +24079,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24044,7 +24118,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24081,7 +24157,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24118,7 +24196,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24155,7 +24235,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24192,7 +24274,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24229,7 +24313,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24266,7 +24352,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24303,7 +24391,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24340,7 +24430,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,7 +24469,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24414,7 +24508,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24451,7 +24547,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24488,7 +24586,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24525,7 +24625,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24562,7 +24664,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24599,7 +24703,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24636,7 +24742,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24673,7 +24781,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24710,7 +24820,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24747,7 +24859,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24784,7 +24898,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24821,7 +24937,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24858,7 +24976,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24895,7 +25015,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24932,7 +25054,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24969,7 +25093,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25006,7 +25132,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25043,7 +25171,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25080,7 +25210,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25114,10 +25246,14 @@
         <v>931645.3434126319</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>67</v>
+      </c>
+      <c r="J743" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25151,10 +25287,14 @@
         <v>1062806.943612632</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>67.11</v>
+      </c>
+      <c r="J744" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25191,7 +25331,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25228,7 +25370,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25265,7 +25409,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25302,7 +25448,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25339,7 +25487,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25376,7 +25526,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25413,7 +25565,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25450,7 +25604,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25487,7 +25643,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25524,7 +25682,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25561,7 +25721,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25598,7 +25760,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25635,7 +25799,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25672,7 +25838,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25709,7 +25877,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>66.25</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25721,6 +25891,6 @@
       <c r="M759" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XLM.xlsx
+++ b/BackTest/2020-01-20 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>39224.15920981992</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-61143.01759018008</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-62251.14829018008</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-62504.14839018007</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-115457.0833901801</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145553.8723901801</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-129931.1777901801</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-129782.5749901801</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-130457.5749901801</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-131010.5749901801</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-119861.7695901801</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-130450.8500901801</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-130724.9894901801</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-128458.9585901801</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-114395.8317901801</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-111007.1390901801</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-108043.0958901801</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-130543.0958901801</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-309065.3024901801</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-371579.0816901801</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-368928.9718901801</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-368002.7511901801</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-358786.2303901801</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-351940.9663901801</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-346298.2778901801</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2332,10 +2332,14 @@
         <v>-335865.4471901801</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="J59" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2365,11 +2369,19 @@
         <v>-192211.1771901801</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="J60" t="n">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2410,19 @@
         <v>-189232.8762399701</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>70.40000000000001</v>
+      </c>
+      <c r="J61" t="n">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2893,10 +2913,14 @@
         <v>-50194.63813997013</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="J76" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
@@ -2926,11 +2950,19 @@
         <v>-68951.78493997014</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>70.06</v>
+      </c>
+      <c r="J77" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +2994,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3033,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3069,19 @@
         <v>71633.45386002985</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>69.84</v>
+      </c>
+      <c r="J80" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3110,19 @@
         <v>70987.45386002985</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>70.04000000000001</v>
+      </c>
+      <c r="J81" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3151,17 @@
         <v>74454.66336002985</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3190,17 @@
         <v>63834.35906002985</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3229,19 @@
         <v>65610.21636002985</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>69.98999999999999</v>
+      </c>
+      <c r="J84" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3270,19 @@
         <v>143285.6168600299</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>70.01000000000001</v>
+      </c>
+      <c r="J85" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3311,19 @@
         <v>143315.4634600299</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>70.02</v>
+      </c>
+      <c r="J86" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3355,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3394,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3433,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3472,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3511,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3421,11 +3547,19 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="J92" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3669,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3619,13 +3783,19 @@
         <v>338405.3904600298</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>70.06999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L98" t="n">
-        <v>1</v>
+        <v>0.9959990009990011</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -4015,7 +4185,7 @@
         <v>368274.9974600298</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4218,7 @@
         <v>366551.9974600298</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4251,7 @@
         <v>367189.9974600298</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4284,7 @@
         <v>371993.9498600298</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4317,7 @@
         <v>515433.1747800598</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4350,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4383,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4416,7 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4449,7 @@
         <v>507247.5359800599</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4482,7 @@
         <v>507254.5359800599</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4515,7 @@
         <v>485835.0675800599</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4548,7 @@
         <v>433642.5791800598</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4581,7 @@
         <v>420810.2092800598</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4614,7 @@
         <v>457813.4495800599</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4647,7 @@
         <v>459168.3100800599</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4680,7 @@
         <v>462168.3100800599</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4713,7 @@
         <v>480463.9988800599</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4746,7 @@
         <v>467829.6717800599</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4741,7 +4911,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4944,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4977,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +5010,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4906,7 +5076,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +5109,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5142,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5175,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5208,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5241,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5274,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5307,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5340,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5373,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5406,7 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5439,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5472,7 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5505,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5538,7 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5571,7 @@
         <v>433708.6944800599</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5604,7 @@
         <v>429974.5219800599</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5637,7 @@
         <v>442876.4003800599</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5670,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5703,7 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -7645,10 +7815,14 @@
         <v>131608.4199683199</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>69.2</v>
+      </c>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
@@ -7681,8 +7855,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +7894,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,10 +7930,14 @@
         <v>96948.83956831989</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="J223" t="n">
+        <v>69.73999999999999</v>
+      </c>
       <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
@@ -7777,11 +7967,19 @@
         <v>109932.0395683199</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>69.34999999999999</v>
+      </c>
+      <c r="J224" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8011,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8050,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8086,19 @@
         <v>158877.0309683199</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>69.28</v>
+      </c>
+      <c r="J227" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7909,11 +8127,19 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>69.39</v>
+      </c>
+      <c r="J228" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8171,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8207,19 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="J230" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8248,19 @@
         <v>-36417.7628316801</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="J231" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +8292,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8328,19 @@
         <v>-78959.7907316801</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>69.02</v>
+      </c>
+      <c r="J233" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8107,11 +8369,19 @@
         <v>-69371.6269316801</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>69.09</v>
+      </c>
+      <c r="J234" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8140,11 +8410,19 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>69.22</v>
+      </c>
+      <c r="J235" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8493,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8532,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8571,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8610,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +8727,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +8805,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +8844,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8638,8 +9000,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8671,8 +9039,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8704,8 +9078,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8737,8 +9117,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8770,8 +9156,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8803,8 +9195,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8836,8 +9234,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8869,8 +9273,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8899,13 +9309,19 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L258" t="n">
-        <v>1</v>
+        <v>1.006327788930313</v>
       </c>
       <c r="M258" t="inlineStr"/>
     </row>
@@ -8932,7 +9348,7 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +9381,7 @@
         <v>299542.1247960099</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +9414,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9447,7 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9480,7 @@
         <v>256571.2521960099</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9130,7 +9546,7 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9579,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9612,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9645,7 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9678,7 @@
         <v>276870.0027960099</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9711,7 @@
         <v>274057.0027960099</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9744,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9777,7 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9427,7 +9843,7 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9876,7 @@
         <v>418975.2376960099</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9909,7 @@
         <v>464558.8977960098</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9942,7 @@
         <v>475570.4205960098</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9975,7 @@
         <v>461463.5638270098</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +10008,7 @@
         <v>446210.4271270098</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +10041,7 @@
         <v>445210.4271270098</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +10074,7 @@
         <v>432357.4093270099</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +10107,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +10140,7 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +10173,7 @@
         <v>391173.9461270099</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +10206,7 @@
         <v>391490.8984270099</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +10239,7 @@
         <v>368081.5108270099</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9889,7 +10305,7 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11539,7 +11955,7 @@
         <v>764717.3043610299</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11988,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +12021,7 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +12054,7 @@
         <v>819242.6163610298</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +12087,7 @@
         <v>820242.6163610298</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +12120,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +12153,7 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +12186,7 @@
         <v>791054.1523610298</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +12219,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +12252,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +12285,7 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +12318,7 @@
         <v>757750.6087610297</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +12351,7 @@
         <v>758618.0587610296</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +12384,7 @@
         <v>764259.0552610296</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12417,7 @@
         <v>753598.0276610296</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12450,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12483,7 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12516,7 @@
         <v>823238.4240610296</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12549,7 @@
         <v>823268.4240610296</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12582,7 @@
         <v>833819.1365610296</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12615,7 @@
         <v>833432.6912610296</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12648,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12681,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12714,7 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12747,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12780,7 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12813,7 @@
         <v>887272.5393610295</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12846,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12879,7 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12912,7 @@
         <v>922360.3766610294</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12945,7 @@
         <v>922351.9191610294</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12978,7 @@
         <v>923836.9506610294</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +13011,7 @@
         <v>924845.3752610295</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +13044,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +13077,7 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +13110,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +13143,7 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +13176,7 @@
         <v>914659.4591610294</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +13209,7 @@
         <v>943532.7612610294</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -13090,7 +13506,7 @@
         <v>784130.5129477493</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13539,7 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -16654,7 +17070,7 @@
         <v>623159.6866046997</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +17103,7 @@
         <v>570623.9517046997</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +17136,7 @@
         <v>536549.6975046997</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16885,7 +17301,7 @@
         <v>565221.4264046997</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +17334,7 @@
         <v>564999.6051046997</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +17367,7 @@
         <v>726587.1345046997</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +17400,7 @@
         <v>1042147.3319047</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17433,7 @@
         <v>1435487.4139047</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17466,7 @@
         <v>1772412.2453047</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17499,7 @@
         <v>2242215.9021047</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18172,7 +18588,7 @@
         <v>2071929.218609771</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18502,7 +18918,7 @@
         <v>2118046.45940769</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18568,7 +18984,7 @@
         <v>2141706.71960769</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +19017,7 @@
         <v>2134719.28120769</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +19050,7 @@
         <v>2154742.72870769</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +19083,7 @@
         <v>2142968.76800769</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +19116,7 @@
         <v>2079760.32780769</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +19149,7 @@
         <v>2092773.22380769</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +19182,7 @@
         <v>2147108.57420769</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +19215,7 @@
         <v>2147108.57410769</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +19248,7 @@
         <v>2165440.12010769</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +19281,7 @@
         <v>2154520.93120769</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18931,7 +19347,7 @@
         <v>2167356.59880769</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +19380,7 @@
         <v>2166557.90270769</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +19413,7 @@
         <v>2212435.39871316</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19030,7 +19446,7 @@
         <v>2223242.64881316</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19063,7 +19479,7 @@
         <v>2514231.39021316</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19096,7 +19512,7 @@
         <v>2524801.94220769</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19129,7 +19545,7 @@
         <v>2525335.74110769</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19162,7 +19578,7 @@
         <v>2525191.42440769</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19294,7 +19710,7 @@
         <v>2637037.67730769</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19525,7 +19941,7 @@
         <v>2666875.980107691</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19558,7 +19974,7 @@
         <v>2666155.346707691</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19591,7 +20007,7 @@
         <v>2691318.55570769</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19624,7 +20040,7 @@
         <v>2665281.27850769</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19657,7 +20073,7 @@
         <v>2665767.721707691</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19690,7 +20106,7 @@
         <v>2666270.886907691</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -19723,7 +20139,7 @@
         <v>2666309.344107691</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19756,7 +20172,7 @@
         <v>2725379.267807691</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19789,7 +20205,7 @@
         <v>2728386.035607691</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19822,7 +20238,7 @@
         <v>2728379.266907691</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19855,7 +20271,7 @@
         <v>2728372.507407691</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19888,7 +20304,7 @@
         <v>2714529.942007691</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19921,7 +20337,7 @@
         <v>2692211.465907691</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +20370,7 @@
         <v>2689651.167907691</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +20403,7 @@
         <v>2696225.64830769</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20436,7 @@
         <v>2696566.53760769</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20482,7 +20898,7 @@
         <v>2235447.179107691</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20931,7 @@
         <v>2123849.896907691</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20964,7 @@
         <v>2355396.814807691</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20997,7 @@
         <v>2213149.999207691</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +21030,7 @@
         <v>2335253.521607691</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +21063,7 @@
         <v>2269457.098407691</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +21096,7 @@
         <v>2277929.478507691</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +21129,7 @@
         <v>2277929.478507691</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +21162,7 @@
         <v>2267836.359207691</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +21195,7 @@
         <v>2038363.510807691</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +21228,7 @@
         <v>1945604.645507691</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +21261,7 @@
         <v>1938839.393407691</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +21294,7 @@
         <v>1971590.334807691</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +21327,7 @@
         <v>1892567.932407691</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +21360,7 @@
         <v>1571826.892375741</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +21393,7 @@
         <v>1571826.892375741</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21426,7 @@
         <v>1914360.827668541</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -23188,14 +23604,10 @@
         <v>931343.3490542823</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="J691" t="n">
-        <v>66.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
@@ -23225,19 +23637,11 @@
         <v>902728.7860542823</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>66.45999999999999</v>
-      </c>
-      <c r="J692" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23266,19 +23670,11 @@
         <v>927526.1856542823</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>66.23999999999999</v>
-      </c>
-      <c r="J693" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23307,19 +23703,11 @@
         <v>821230.1403542823</v>
       </c>
       <c r="H694" t="n">
-        <v>1</v>
-      </c>
-      <c r="I694" t="n">
-        <v>66.45999999999999</v>
-      </c>
-      <c r="J694" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23348,19 +23736,11 @@
         <v>851116.3758542823</v>
       </c>
       <c r="H695" t="n">
-        <v>1</v>
-      </c>
-      <c r="I695" t="n">
-        <v>66.34999999999999</v>
-      </c>
-      <c r="J695" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23389,19 +23769,11 @@
         <v>897355.4606542822</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>66.45999999999999</v>
-      </c>
-      <c r="J696" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23430,19 +23802,11 @@
         <v>931598.6373542822</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>66.56</v>
-      </c>
-      <c r="J697" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23471,19 +23835,11 @@
         <v>960863.1379010422</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>66.66</v>
-      </c>
-      <c r="J698" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23512,19 +23868,11 @@
         <v>891503.0883010422</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>66.73999999999999</v>
-      </c>
-      <c r="J699" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23553,19 +23901,11 @@
         <v>932186.6627010423</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>66.68000000000001</v>
-      </c>
-      <c r="J700" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23594,19 +23934,11 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>66.98999999999999</v>
-      </c>
-      <c r="J701" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23635,19 +23967,11 @@
         <v>966396.1906010422</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>67.29000000000001</v>
-      </c>
-      <c r="J702" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23676,19 +24000,11 @@
         <v>984311.0225010422</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>67.29000000000001</v>
-      </c>
-      <c r="J703" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23717,19 +24033,11 @@
         <v>984311.0225010422</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>67.53</v>
-      </c>
-      <c r="J704" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23758,19 +24066,11 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>67.53</v>
-      </c>
-      <c r="J705" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23799,19 +24099,11 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J706" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23840,19 +24132,11 @@
         <v>1055557.419834232</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J707" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23884,14 +24168,8 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -23923,14 +24201,8 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -23962,14 +24234,8 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24001,14 +24267,8 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24040,14 +24300,8 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24079,14 +24333,8 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24118,14 +24366,8 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24157,14 +24399,8 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24196,14 +24432,8 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24235,14 +24465,8 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24274,14 +24498,8 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24313,14 +24531,8 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24352,14 +24564,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24391,14 +24597,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24430,14 +24630,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24469,14 +24663,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24508,14 +24696,8 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24547,14 +24729,8 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24586,14 +24762,8 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24625,14 +24795,8 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24664,14 +24828,8 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24703,14 +24861,8 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24742,14 +24894,8 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24781,14 +24927,8 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24820,14 +24960,8 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24859,14 +24993,8 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24898,14 +25026,8 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24937,14 +25059,8 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24976,14 +25092,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25015,14 +25125,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25054,14 +25158,8 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25093,14 +25191,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25132,14 +25224,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25171,14 +25257,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25210,14 +25290,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25246,19 +25320,11 @@
         <v>931645.3434126319</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>67</v>
-      </c>
-      <c r="J743" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25287,19 +25353,11 @@
         <v>1062806.943612632</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>67.11</v>
-      </c>
-      <c r="J744" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25331,14 +25389,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25370,14 +25422,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25409,14 +25455,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25448,14 +25488,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25487,14 +25521,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25526,14 +25554,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25565,14 +25587,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25604,14 +25620,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25643,14 +25653,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25682,14 +25686,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25721,14 +25719,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25760,14 +25752,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25799,14 +25785,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25838,14 +25818,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25877,20 +25851,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
       <c r="M759" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest XLM.xlsx
+++ b/BackTest/2020-01-20 BackTest XLM.xlsx
@@ -748,7 +748,7 @@
         <v>39224.15920981992</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-61143.01759018008</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-62251.14829018008</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-62504.14839018007</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-115457.0833901801</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-145476.5618901801</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-145553.8723901801</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-129931.1777901801</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-129782.5749901801</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-130457.5749901801</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-131010.5749901801</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-119861.7695901801</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,10 +1441,14 @@
         <v>-130450.8500901801</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="J32" t="n">
+        <v>71.26000000000001</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
@@ -1474,11 +1478,17 @@
         <v>-130724.9894901801</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1517,17 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>71.26000000000001</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,7 +1556,7 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,11 +1589,17 @@
         <v>-122042.0158901801</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>71.05</v>
+      </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1628,17 @@
         <v>-128458.9585901801</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>71.05</v>
+      </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1667,17 @@
         <v>-114395.8317901801</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>70.81</v>
+      </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1706,17 @@
         <v>-111007.1390901801</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>70.91</v>
+      </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1745,17 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>70.94</v>
+      </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1784,17 @@
         <v>-110991.3248901801</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>71.08</v>
+      </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1823,17 @@
         <v>-108043.0958901801</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>71.08</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1862,17 @@
         <v>-130543.0958901801</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>71.09</v>
+      </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1901,17 @@
         <v>-309065.3024901801</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>71.01000000000001</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1940,17 @@
         <v>-321429.52739018</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>70.44</v>
+      </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1979,17 @@
         <v>-334354.6612901801</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2018,17 @@
         <v>-373235.2328901801</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>70</v>
+      </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2057,17 @@
         <v>-371579.0816901801</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>69.77</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2096,17 @@
         <v>-368928.9718901801</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>69.78</v>
+      </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2135,17 @@
         <v>-368002.7511901801</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>70.03</v>
+      </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2174,17 @@
         <v>-358786.2303901801</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>70.12</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2213,17 @@
         <v>-351940.9663901801</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>70.13</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2252,17 @@
         <v>-349866.2570901801</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>70.37</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2291,17 @@
         <v>-350335.8262901801</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>70.73999999999999</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2330,17 @@
         <v>-345712.1961901801</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>70.20999999999999</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2369,17 @@
         <v>-346298.2778901801</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>70.41</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2408,17 @@
         <v>-375016.4974901801</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>70.20999999999999</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2447,17 @@
         <v>-379469.5072901801</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>70.15000000000001</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2337,10 +2491,12 @@
       <c r="I59" t="n">
         <v>70.01000000000001</v>
       </c>
-      <c r="J59" t="n">
-        <v>70.01000000000001</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2374,12 +2530,10 @@
       <c r="I60" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="J60" t="n">
-        <v>70.01000000000001</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L60" t="n">
@@ -2415,12 +2569,10 @@
       <c r="I61" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="J61" t="n">
-        <v>70.01000000000001</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2451,11 +2603,17 @@
         <v>-199858.7801399701</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>70.51000000000001</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2484,11 +2642,17 @@
         <v>-199846.1842399701</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>70.23</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2517,11 +2681,17 @@
         <v>-200982.1842399701</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>70.42</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2720,17 @@
         <v>-203261.6371399701</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>70.11</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2759,17 @@
         <v>-203261.6371399701</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2798,17 @@
         <v>-203967.6238399701</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2649,11 +2837,17 @@
         <v>-207425.0914399701</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>69.91</v>
+      </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2682,11 +2876,17 @@
         <v>-215480.5432399701</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>69.70999999999999</v>
+      </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,11 +2915,17 @@
         <v>-214980.5432399701</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>69.45</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2748,11 +2954,17 @@
         <v>-193543.7806399702</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>69.48</v>
+      </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2781,11 +2993,17 @@
         <v>-192932.7806399702</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>69.55</v>
+      </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2814,11 +3032,17 @@
         <v>-196990.9447399701</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>69.8</v>
+      </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2847,11 +3071,17 @@
         <v>-49083.63813997013</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>69.75</v>
+      </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2880,11 +3110,17 @@
         <v>-49639.63813997013</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>70.14</v>
+      </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2918,10 +3154,12 @@
       <c r="I76" t="n">
         <v>70.06999999999999</v>
       </c>
-      <c r="J76" t="n">
-        <v>70.06999999999999</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2955,12 +3193,10 @@
       <c r="I77" t="n">
         <v>70.06</v>
       </c>
-      <c r="J77" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L77" t="n">
@@ -2991,12 +3227,12 @@
         <v>-77479.84163997014</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>69.86</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,12 +3266,12 @@
         <v>36033.45386002985</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>69.76000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3074,9 +3310,7 @@
       <c r="I80" t="n">
         <v>69.84</v>
       </c>
-      <c r="J80" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3115,9 +3349,7 @@
       <c r="I81" t="n">
         <v>70.04000000000001</v>
       </c>
-      <c r="J81" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,12 +3383,12 @@
         <v>74454.66336002985</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>69.91</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,12 +3422,12 @@
         <v>63834.35906002985</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>70.15000000000001</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3234,9 +3466,7 @@
       <c r="I84" t="n">
         <v>69.98999999999999</v>
       </c>
-      <c r="J84" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3275,9 +3505,7 @@
       <c r="I85" t="n">
         <v>70.01000000000001</v>
       </c>
-      <c r="J85" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3316,9 +3544,7 @@
       <c r="I86" t="n">
         <v>70.02</v>
       </c>
-      <c r="J86" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,12 +3578,12 @@
         <v>87222.24986002986</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>70.36</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,12 +3617,12 @@
         <v>277822.7379600299</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>69.73999999999999</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3430,12 +3656,12 @@
         <v>278369.3379600298</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>69.81</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,12 +3695,12 @@
         <v>266850.3986600298</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3508,12 +3734,12 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>69.79000000000001</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3552,9 +3778,7 @@
       <c r="I92" t="n">
         <v>69.89</v>
       </c>
-      <c r="J92" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3591,9 +3815,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3627,12 +3849,12 @@
         <v>267297.0185600298</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3666,12 +3888,12 @@
         <v>343397.0185600298</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>69.89</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,9 +3930,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3747,9 +3967,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>70.06999999999999</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3783,19 +4001,19 @@
         <v>338405.3904600298</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>70.06999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>70.14</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>0.9959990009990011</v>
+        <v>1</v>
       </c>
       <c r="M98" t="inlineStr"/>
     </row>
@@ -3822,11 +4040,17 @@
         <v>333405.1520600299</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>70.14</v>
+      </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3855,11 +4079,17 @@
         <v>334177.2470600298</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3888,11 +4118,17 @@
         <v>333683.2470600298</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>70.20999999999999</v>
+      </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3921,11 +4157,17 @@
         <v>333683.2470600298</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>70.17</v>
+      </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3954,11 +4196,17 @@
         <v>321842.2942600298</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>70.17</v>
+      </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3987,11 +4235,17 @@
         <v>322278.7942600298</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>70.06</v>
+      </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4020,11 +4274,17 @@
         <v>324213.1530600298</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>70.31999999999999</v>
+      </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4057,7 +4317,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4090,7 +4354,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4119,11 +4387,17 @@
         <v>342610.2577600298</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>70.56</v>
+      </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4156,7 +4430,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4185,11 +4463,15 @@
         <v>368274.9974600298</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4218,11 +4500,15 @@
         <v>366551.9974600298</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4251,11 +4537,15 @@
         <v>367189.9974600298</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4284,11 +4574,15 @@
         <v>371993.9498600298</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4611,15 @@
         <v>515433.1747800598</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4350,11 +4648,15 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4685,15 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4416,11 +4722,15 @@
         <v>498627.5747800599</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4449,11 +4759,15 @@
         <v>507247.5359800599</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4482,11 +4796,15 @@
         <v>507254.5359800599</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4515,11 +4833,15 @@
         <v>485835.0675800599</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +4870,15 @@
         <v>433642.5791800598</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4581,11 +4907,15 @@
         <v>420810.2092800598</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4614,11 +4944,15 @@
         <v>457813.4495800599</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4647,11 +4981,15 @@
         <v>459168.3100800599</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4680,11 +5018,15 @@
         <v>462168.3100800599</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4713,11 +5055,15 @@
         <v>480463.9988800599</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4746,11 +5092,15 @@
         <v>467829.6717800599</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4783,7 +5133,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4816,7 +5170,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4849,7 +5207,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4882,7 +5244,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4911,11 +5277,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4944,11 +5314,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +5351,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5010,11 +5388,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5047,7 +5429,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5076,11 +5462,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5109,11 +5499,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5142,11 +5536,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5175,11 +5573,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5208,11 +5610,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5241,11 +5647,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5274,11 +5684,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5307,11 +5721,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5758,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5373,11 +5795,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5406,11 +5832,15 @@
         <v>460398.9786800599</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5439,11 +5869,15 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5472,11 +5906,15 @@
         <v>461260.9785800599</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5505,11 +5943,15 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5980,15 @@
         <v>456485.7994800599</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5571,11 +6017,15 @@
         <v>433708.6944800599</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5604,11 +6054,15 @@
         <v>429974.5219800599</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5637,11 +6091,15 @@
         <v>442876.4003800599</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5670,11 +6128,15 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5703,11 +6165,15 @@
         <v>442903.4003800599</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5740,7 +6206,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5773,7 +6243,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5806,7 +6280,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5839,7 +6317,11 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5872,7 +6354,11 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5905,7 +6391,11 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5938,7 +6428,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5971,7 +6465,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6004,7 +6502,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6037,7 +6539,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6070,7 +6576,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6103,7 +6613,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6136,7 +6650,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6169,7 +6687,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6202,7 +6724,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6235,7 +6761,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6798,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6301,7 +6835,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6330,11 +6868,17 @@
         <v>333801.1802800599</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>69.91</v>
+      </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6363,11 +6907,17 @@
         <v>323798.9078800599</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>70.22</v>
+      </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6396,11 +6946,17 @@
         <v>349215.3649800599</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6429,11 +6985,17 @@
         <v>353794.5601800599</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>70</v>
+      </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6466,7 +7028,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6495,11 +7061,17 @@
         <v>347936.1504800598</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6528,11 +7100,17 @@
         <v>322366.2041800598</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>70</v>
+      </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +7139,17 @@
         <v>325337.0436800598</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6594,11 +7178,17 @@
         <v>265835.2436800599</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6627,11 +7217,17 @@
         <v>265835.2436800599</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6660,11 +7256,17 @@
         <v>267871.4302800599</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6693,11 +7295,17 @@
         <v>267871.4302800599</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>69.97</v>
+      </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6726,11 +7334,17 @@
         <v>253740.2209800599</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>69.97</v>
+      </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +7373,17 @@
         <v>254279.4209800599</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6796,7 +7416,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6825,11 +7449,17 @@
         <v>251915.8351800599</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>69.98</v>
+      </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6858,11 +7488,17 @@
         <v>246952.1873800599</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>70.15000000000001</v>
+      </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6891,11 +7527,17 @@
         <v>232506.0993800599</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>70.01000000000001</v>
+      </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6924,11 +7566,17 @@
         <v>232519.0993800599</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6957,11 +7605,17 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6990,11 +7644,17 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7023,11 +7683,17 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7056,11 +7722,17 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7089,11 +7761,17 @@
         <v>232189.4401800599</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7122,11 +7800,17 @@
         <v>234655.1522688999</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>69.89</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7155,11 +7839,17 @@
         <v>243057.3232688999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>70.02</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7188,11 +7878,17 @@
         <v>264741.1617496799</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>70.14</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7221,11 +7917,17 @@
         <v>264321.8275627499</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>70.31</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7254,11 +7956,17 @@
         <v>262851.8332631999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>70.29000000000001</v>
+      </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7287,11 +7995,17 @@
         <v>262851.8332631999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>70.17</v>
+      </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7320,11 +8034,17 @@
         <v>237058.4244631999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>70.17</v>
+      </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7353,11 +8073,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>70.14</v>
+      </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7386,11 +8112,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7419,11 +8151,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7452,11 +8190,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7485,11 +8229,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7518,11 +8268,17 @@
         <v>135896.7713631999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7551,11 +8307,17 @@
         <v>160400.4312683199</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7584,11 +8346,17 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>69.98999999999999</v>
+      </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7617,11 +8385,17 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7650,11 +8424,17 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7683,11 +8463,17 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7716,11 +8502,17 @@
         <v>143940.7679683199</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7749,11 +8541,17 @@
         <v>138467.4554683199</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>69.79000000000001</v>
+      </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7782,11 +8580,17 @@
         <v>129743.8664683199</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>69.47</v>
+      </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7820,10 +8624,12 @@
       <c r="I220" t="n">
         <v>69.2</v>
       </c>
-      <c r="J220" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7852,15 +8658,15 @@
         <v>113953.1179683199</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>69.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>69.86</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L221" t="n">
@@ -7891,15 +8697,15 @@
         <v>112528.6208683199</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>69.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -7935,10 +8741,12 @@
       <c r="I223" t="n">
         <v>69.73999999999999</v>
       </c>
-      <c r="J223" t="n">
-        <v>69.73999999999999</v>
-      </c>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7972,12 +8780,10 @@
       <c r="I224" t="n">
         <v>69.34999999999999</v>
       </c>
-      <c r="J224" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L224" t="n">
@@ -8008,15 +8814,15 @@
         <v>109512.7054683199</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -8047,12 +8853,12 @@
         <v>109970.9061683199</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>69.27</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8091,9 +8897,7 @@
       <c r="I227" t="n">
         <v>69.28</v>
       </c>
-      <c r="J227" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8132,9 +8936,7 @@
       <c r="I228" t="n">
         <v>69.39</v>
       </c>
-      <c r="J228" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8168,12 +8970,12 @@
         <v>131914.8828683199</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>69.36</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,9 +9014,7 @@
       <c r="I230" t="n">
         <v>69.36</v>
       </c>
-      <c r="J230" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,9 +9053,7 @@
       <c r="I231" t="n">
         <v>69.36</v>
       </c>
-      <c r="J231" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,12 +9087,12 @@
         <v>-81670.4003316801</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>69.12</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8333,9 +9131,7 @@
       <c r="I233" t="n">
         <v>69.02</v>
       </c>
-      <c r="J233" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8374,9 +9170,7 @@
       <c r="I234" t="n">
         <v>69.09</v>
       </c>
-      <c r="J234" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8415,9 +9209,7 @@
       <c r="I235" t="n">
         <v>69.22</v>
       </c>
-      <c r="J235" t="n">
-        <v>69.73999999999999</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,12 +9243,12 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,12 +9282,12 @@
         <v>-54436.07523168011</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,12 +9321,12 @@
         <v>-53234.71483168011</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>69.69</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8568,12 +9360,12 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>69.86</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8607,12 +9399,12 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>70</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8646,12 +9438,12 @@
         <v>-52890.71483168011</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>70</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,12 +9477,12 @@
         <v>-52850.71483168011</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>70</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8724,12 +9516,12 @@
         <v>-52866.42913168011</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8763,12 +9555,12 @@
         <v>-44090.91283168011</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>70</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8802,12 +9594,12 @@
         <v>-44390.91283168011</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>70.12</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8841,12 +9633,12 @@
         <v>-44382.91283168011</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8880,12 +9672,12 @@
         <v>-54531.0362316801</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>69.98</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8919,12 +9711,12 @@
         <v>-62701.8128316801</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8958,12 +9750,12 @@
         <v>-62701.8128316801</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8997,12 +9789,12 @@
         <v>-61535.8273316801</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9036,12 +9828,12 @@
         <v>-63950.1491316801</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9075,12 +9867,12 @@
         <v>-68737.30403168009</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9114,12 +9906,12 @@
         <v>-65196.88253168009</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9153,12 +9945,12 @@
         <v>-3909.354303990091</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9192,12 +9984,12 @@
         <v>8423.801596009909</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9231,12 +10023,12 @@
         <v>8423.801596009909</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9270,12 +10062,12 @@
         <v>207043.1788960099</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>70.26000000000001</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,19 +10101,19 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>69.73999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.006327788930313</v>
+        <v>1</v>
       </c>
       <c r="M258" t="inlineStr"/>
     </row>
@@ -9348,11 +10140,17 @@
         <v>286879.8707960099</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>70.53</v>
+      </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9381,11 +10179,17 @@
         <v>299542.1247960099</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>70.53</v>
+      </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9414,11 +10218,17 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>70.55</v>
+      </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9447,11 +10257,17 @@
         <v>268855.8098960099</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>70.53</v>
+      </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9480,11 +10296,17 @@
         <v>256571.2521960099</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>70.53</v>
+      </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +10335,17 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>70.23</v>
+      </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9546,11 +10374,17 @@
         <v>234712.5124960099</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>70.08</v>
+      </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9579,11 +10413,17 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>70.08</v>
+      </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9612,11 +10452,17 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +10491,17 @@
         <v>208277.2493960099</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9678,11 +10530,17 @@
         <v>276870.0027960099</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>70.06999999999999</v>
+      </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9711,11 +10569,17 @@
         <v>274057.0027960099</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>70.31999999999999</v>
+      </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9744,11 +10608,17 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>70.02</v>
+      </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9777,11 +10647,17 @@
         <v>274065.0027960099</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>70.31999999999999</v>
+      </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9810,11 +10686,17 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>70.31999999999999</v>
+      </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +10725,17 @@
         <v>394134.2379960099</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>70.36</v>
+      </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9876,11 +10764,17 @@
         <v>418975.2376960099</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>70.36</v>
+      </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9909,11 +10803,17 @@
         <v>464558.8977960098</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>70.75</v>
+      </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9942,11 +10842,17 @@
         <v>475570.4205960098</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>70.76000000000001</v>
+      </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9975,11 +10881,17 @@
         <v>461463.5638270098</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>70.8</v>
+      </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10008,11 +10920,17 @@
         <v>446210.4271270098</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>70.73</v>
+      </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10041,11 +10959,17 @@
         <v>445210.4271270098</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>70.36</v>
+      </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10074,11 +10998,17 @@
         <v>432357.4093270099</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>70.3</v>
+      </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10107,11 +11037,17 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>70</v>
+      </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10140,11 +11076,17 @@
         <v>422400.8336270099</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>69.91</v>
+      </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10173,11 +11115,17 @@
         <v>391173.9461270099</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>69.91</v>
+      </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10206,11 +11154,17 @@
         <v>391490.8984270099</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10239,11 +11193,17 @@
         <v>368081.5108270099</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>70</v>
+      </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10272,11 +11232,17 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10305,11 +11271,17 @@
         <v>685893.5964270099</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>69.7</v>
+      </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10342,7 +11314,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10371,11 +11347,17 @@
         <v>649917.2965270099</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10408,7 +11390,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10441,7 +11427,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10474,7 +11464,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10507,7 +11501,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10540,7 +11538,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11575,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10606,7 +11612,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10639,7 +11649,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10672,7 +11686,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10705,7 +11723,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10738,7 +11760,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10771,7 +11797,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10804,7 +11834,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10837,7 +11871,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10870,7 +11908,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10903,7 +11945,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10936,7 +11982,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10969,7 +12019,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11002,7 +12056,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11035,7 +12093,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11068,7 +12130,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11101,7 +12167,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11134,7 +12204,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11167,7 +12241,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11200,7 +12278,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11233,7 +12315,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11266,7 +12352,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11299,7 +12389,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11332,7 +12426,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11365,7 +12463,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11398,7 +12500,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11431,7 +12537,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11464,7 +12574,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11497,7 +12611,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11530,7 +12648,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11563,7 +12685,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11596,7 +12722,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11629,7 +12759,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11662,7 +12796,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11695,7 +12833,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11728,7 +12870,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11761,7 +12907,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11794,7 +12944,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11827,7 +12981,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11860,7 +13018,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11893,7 +13055,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11926,7 +13092,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11955,11 +13125,15 @@
         <v>764717.3043610299</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11988,11 +13162,15 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12021,11 +13199,15 @@
         <v>812992.6173610298</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12054,11 +13236,15 @@
         <v>819242.6163610298</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12087,11 +13273,15 @@
         <v>820242.6163610298</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12120,11 +13310,15 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12153,11 +13347,15 @@
         <v>791078.1264610298</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12186,11 +13384,15 @@
         <v>791054.1523610298</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12219,11 +13421,15 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12252,11 +13458,15 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12285,11 +13495,15 @@
         <v>793536.1330610297</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12318,11 +13532,15 @@
         <v>757750.6087610297</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12351,11 +13569,15 @@
         <v>758618.0587610296</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12384,11 +13606,15 @@
         <v>764259.0552610296</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12417,11 +13643,15 @@
         <v>753598.0276610296</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12450,11 +13680,15 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12483,11 +13717,15 @@
         <v>823807.7544610295</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12516,11 +13754,15 @@
         <v>823238.4240610296</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12549,11 +13791,15 @@
         <v>823268.4240610296</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12582,11 +13828,15 @@
         <v>833819.1365610296</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12615,11 +13865,15 @@
         <v>833432.6912610296</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12648,11 +13902,15 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12681,11 +13939,15 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12714,11 +13976,15 @@
         <v>834836.6627610296</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12747,11 +14013,15 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12780,11 +14050,15 @@
         <v>845616.3222610295</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12813,11 +14087,15 @@
         <v>887272.5393610295</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12846,11 +14124,15 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12879,11 +14161,15 @@
         <v>915246.3765610295</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12912,11 +14198,15 @@
         <v>922360.3766610294</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12945,11 +14235,15 @@
         <v>922351.9191610294</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12978,11 +14272,15 @@
         <v>923836.9506610294</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13011,11 +14309,15 @@
         <v>924845.3752610295</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13044,11 +14346,15 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13077,11 +14383,15 @@
         <v>925148.0198610295</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13110,11 +14420,15 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13143,11 +14457,15 @@
         <v>915850.3597610295</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13176,11 +14494,15 @@
         <v>914659.4591610294</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13209,11 +14531,15 @@
         <v>943532.7612610294</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13246,7 +14572,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13279,7 +14609,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13312,7 +14646,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13345,7 +14683,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13378,7 +14720,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13411,7 +14757,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13444,7 +14794,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13477,7 +14831,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13506,11 +14864,15 @@
         <v>784130.5129477493</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13539,11 +14901,15 @@
         <v>781935.9719477494</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13576,7 +14942,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13609,7 +14979,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13642,7 +15016,11 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13675,7 +15053,11 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13708,7 +15090,11 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13741,7 +15127,11 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13774,7 +15164,11 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13807,7 +15201,11 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13840,7 +15238,11 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13873,7 +15275,11 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13906,7 +15312,11 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13939,7 +15349,11 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13972,7 +15386,11 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14005,7 +15423,11 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14038,7 +15460,11 @@
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14071,7 +15497,11 @@
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14104,7 +15534,11 @@
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14137,7 +15571,11 @@
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14170,7 +15608,11 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14203,7 +15645,11 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14236,7 +15682,11 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14269,7 +15719,11 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14302,7 +15756,11 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14335,7 +15793,11 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14368,7 +15830,11 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14401,7 +15867,11 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14434,7 +15904,11 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14467,7 +15941,11 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14500,7 +15978,11 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14533,7 +16015,11 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14566,7 +16052,11 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14599,7 +16089,11 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14632,7 +16126,11 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14665,7 +16163,11 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14698,7 +16200,11 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14731,7 +16237,11 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14764,7 +16274,11 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14797,7 +16311,11 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14830,7 +16348,11 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14863,7 +16385,11 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14896,7 +16422,11 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14929,7 +16459,11 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14962,7 +16496,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14995,7 +16533,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15028,7 +16570,11 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15061,7 +16607,11 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15094,7 +16644,11 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15127,7 +16681,11 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15160,7 +16718,11 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15193,7 +16755,11 @@
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15226,7 +16792,11 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15259,7 +16829,11 @@
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15292,7 +16866,11 @@
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15325,7 +16903,11 @@
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15358,7 +16940,11 @@
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15391,7 +16977,11 @@
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15424,7 +17014,11 @@
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15457,7 +17051,11 @@
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15490,7 +17088,11 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15523,7 +17125,11 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15556,7 +17162,11 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15589,7 +17199,11 @@
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15622,7 +17236,11 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15655,7 +17273,11 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15688,7 +17310,11 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15721,7 +17347,11 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15754,7 +17384,11 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15787,7 +17421,11 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15820,7 +17458,11 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15853,7 +17495,11 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15886,7 +17532,11 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15919,7 +17569,11 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15952,7 +17606,11 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15985,7 +17643,11 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16018,7 +17680,11 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16051,7 +17717,11 @@
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16084,7 +17754,11 @@
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16117,7 +17791,11 @@
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16150,7 +17828,11 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16183,7 +17865,11 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16216,7 +17902,11 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16249,7 +17939,11 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16282,7 +17976,11 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16315,7 +18013,11 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16348,7 +18050,11 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16381,7 +18087,11 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16414,7 +18124,11 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16447,7 +18161,11 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16480,7 +18198,11 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16513,7 +18235,11 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16546,7 +18272,11 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16579,7 +18309,11 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16612,7 +18346,11 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16645,7 +18383,11 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16678,7 +18420,11 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16711,7 +18457,11 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16744,7 +18494,11 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16777,7 +18531,11 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16810,7 +18568,11 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16843,7 +18605,11 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16876,7 +18642,11 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16909,7 +18679,11 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16942,7 +18716,11 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16975,7 +18753,11 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17008,7 +18790,11 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17041,7 +18827,11 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17070,11 +18860,15 @@
         <v>623159.6866046997</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17103,11 +18897,15 @@
         <v>570623.9517046997</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17136,11 +18934,15 @@
         <v>536549.6975046997</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17173,7 +18975,11 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17206,7 +19012,11 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17239,7 +19049,11 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17272,7 +19086,11 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17301,11 +19119,15 @@
         <v>565221.4264046997</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17334,11 +19156,15 @@
         <v>564999.6051046997</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17367,11 +19193,15 @@
         <v>726587.1345046997</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17400,11 +19230,15 @@
         <v>1042147.3319047</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17433,11 +19267,15 @@
         <v>1435487.4139047</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17466,11 +19304,15 @@
         <v>1772412.2453047</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17499,11 +19341,15 @@
         <v>2242215.9021047</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17536,7 +19382,11 @@
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17569,7 +19419,11 @@
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17602,7 +19456,11 @@
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17635,7 +19493,11 @@
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17668,7 +19530,11 @@
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17701,7 +19567,11 @@
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17734,7 +19604,11 @@
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17767,7 +19641,11 @@
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17800,7 +19678,11 @@
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17833,7 +19715,11 @@
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17866,7 +19752,11 @@
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17899,7 +19789,11 @@
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17932,7 +19826,11 @@
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17965,7 +19863,11 @@
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17994,14 +19896,16 @@
         <v>2221276.322170401</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="n">
-        <v>1</v>
-      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L521" t="inlineStr"/>
       <c r="M521" t="inlineStr"/>
     </row>
     <row r="522">
@@ -18027,7 +19931,7 @@
         <v>2325516.8786704</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18060,7 +19964,7 @@
         <v>2503633.167943281</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18093,7 +19997,7 @@
         <v>2356549.942341001</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18126,7 +20030,7 @@
         <v>2171344.296843281</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18159,7 +20063,7 @@
         <v>2049798.718943281</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18192,7 +20096,7 @@
         <v>2095037.997243281</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18225,7 +20129,7 @@
         <v>2061549.532243281</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18258,7 +20162,7 @@
         <v>2081008.820243281</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18291,7 +20195,7 @@
         <v>2005058.233943281</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18324,7 +20228,7 @@
         <v>2004907.207709771</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18357,7 +20261,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18390,7 +20294,7 @@
         <v>2046629.050309771</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18423,7 +20327,7 @@
         <v>2031065.023809771</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18456,7 +20360,7 @@
         <v>1999160.259209771</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18489,7 +20393,7 @@
         <v>1962769.743909771</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18522,7 +20426,7 @@
         <v>2019696.140309771</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18555,7 +20459,7 @@
         <v>2007905.02070977</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18621,7 +20525,7 @@
         <v>2071929.218609771</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18654,7 +20558,7 @@
         <v>2099251.588209771</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18687,7 +20591,7 @@
         <v>2199234.19616351</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18720,7 +20624,7 @@
         <v>2141219.77096351</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18753,7 +20657,7 @@
         <v>2130626.45686351</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18786,7 +20690,7 @@
         <v>2112441.76746351</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18819,7 +20723,7 @@
         <v>1949708.37716351</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18852,7 +20756,7 @@
         <v>2037931.59426351</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18984,7 +20888,7 @@
         <v>2141706.71960769</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -25056,10 +26960,14 @@
         <v>1046181.259312632</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="J735" t="n">
+        <v>67.83</v>
+      </c>
       <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
@@ -25092,8 +27000,14 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25125,8 +27039,14 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25158,8 +27078,14 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25191,8 +27117,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25224,8 +27156,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25257,8 +27195,14 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25290,8 +27234,14 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25323,8 +27273,14 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25356,8 +27312,14 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25389,8 +27351,14 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25422,8 +27390,14 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25455,8 +27429,14 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25488,8 +27468,14 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25521,8 +27507,14 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25554,8 +27546,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25587,8 +27585,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25620,8 +27624,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25653,8 +27663,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25686,8 +27702,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25719,8 +27741,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25752,8 +27780,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25785,8 +27819,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25818,8 +27858,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25851,8 +27897,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>67.83</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
